--- a/Taller 2 Ej 2.xlsx
+++ b/Taller 2 Ej 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Investigacion de operaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F675D-2213-495D-9FE5-879C05B06FB5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D35625B-9DEE-4E48-A250-021944393C11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,8 +917,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m\.yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1982,46 +1982,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2038,15 +1998,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2135,68 +2086,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2217,6 +2111,99 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2226,63 +2213,76 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4359,50 +4359,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="68"/>
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="68"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="68"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="47" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4422,30 +4422,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="51">
         <v>14</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="51">
         <v>117.43661971830986</v>
       </c>
     </row>
@@ -4455,105 +4455,105 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="52">
         <v>1</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="52">
         <v>8.3098591549296028</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="82"/>
-      <c r="B22" s="79" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="60">
         <v>1</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="60">
         <v>8.169014084507026</v>
       </c>
-      <c r="F22" s="79" t="s">
+      <c r="F22" s="58" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D23" s="52">
         <v>1</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="52">
         <v>12</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="60">
         <v>1</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="60">
         <v>13.32394366197178</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="58" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="51">
         <v>1</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="51">
         <v>25.323943661971782</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4563,122 +4563,122 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" s="52">
         <v>59.999999999999993</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="F30" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="60">
         <v>65</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="73">
-        <v>0</v>
-      </c>
-      <c r="E32" s="71" t="s">
+      <c r="D32" s="52">
+        <v>0</v>
+      </c>
+      <c r="E32" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="81">
-        <v>0</v>
-      </c>
-      <c r="E33" s="71" t="s">
+      <c r="D33" s="60">
+        <v>0</v>
+      </c>
+      <c r="E33" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15" thickBot="1">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="51">
         <v>12</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="80" t="s">
+      <c r="F34" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="69">
+      <c r="G34" s="48">
         <v>0</v>
       </c>
     </row>
@@ -4706,17 +4706,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="62" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4726,189 +4726,189 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="78" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="66">
         <f>F10-G10</f>
         <v>8.6757575757575776</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="67">
         <f>F10+H10</f>
         <v>10.330769230769235</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="50">
         <v>8.3098591549296028</v>
       </c>
-      <c r="E9" s="71">
-        <v>0</v>
-      </c>
-      <c r="F9" s="71">
+      <c r="E9" s="50">
+        <v>0</v>
+      </c>
+      <c r="F9" s="50">
         <v>4</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="50">
         <v>0.73617021276595918</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="50">
         <v>0.23260869565217276</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="66">
         <f>F12-G12</f>
         <v>-1.1045943304007815</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="67">
         <f>F12+H12</f>
         <v>-0.57071960297766644</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="82"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="58">
         <v>8.169014084507026</v>
       </c>
-      <c r="E10" s="79">
-        <v>0</v>
-      </c>
-      <c r="F10" s="79">
+      <c r="E10" s="58">
+        <v>0</v>
+      </c>
+      <c r="F10" s="58">
         <v>9</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="58">
         <v>0.32424242424242261</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="58">
         <v>1.3307692307692343</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="50">
         <v>12</v>
       </c>
-      <c r="E11" s="71">
-        <v>0</v>
-      </c>
-      <c r="F11" s="71">
+      <c r="E11" s="50">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
         <v>2</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="50">
         <v>3</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="50">
         <v>1E+30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="58">
         <v>13.32394366197178</v>
       </c>
-      <c r="E12" s="79">
-        <v>0</v>
-      </c>
-      <c r="F12" s="79">
+      <c r="E12" s="58">
+        <v>0</v>
+      </c>
+      <c r="F12" s="58">
         <v>-1</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="58">
         <v>0.10459433040078148</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="58">
         <v>0.42928039702233356</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="48">
         <v>25.323943661971782</v>
       </c>
-      <c r="E13" s="69">
-        <v>0</v>
-      </c>
-      <c r="F13" s="69">
-        <v>0</v>
-      </c>
-      <c r="G13" s="69">
+      <c r="E13" s="48">
+        <v>0</v>
+      </c>
+      <c r="F13" s="48">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48">
         <v>0.10459433040078148</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="48">
         <v>0.42928039702233356</v>
       </c>
     </row>
@@ -4918,159 +4918,159 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="53" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="54" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="50">
         <v>59.999999999999993</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="50">
         <v>0.30140845070422351</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="50">
         <v>60</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="50">
         <v>4.6236559139784816</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="50">
         <v>6.4130434782608967</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="50">
         <v>65</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="50">
         <v>0.97464788732394514</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="50">
         <v>65</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="50">
         <v>6.2765957446808756</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="50">
         <v>5.8684863523573032</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="71">
-        <v>0</v>
-      </c>
-      <c r="E20" s="71">
+      <c r="D20" s="50">
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
         <v>-1</v>
       </c>
-      <c r="F20" s="71">
-        <v>0</v>
-      </c>
-      <c r="G20" s="71">
+      <c r="F20" s="50">
+        <v>0</v>
+      </c>
+      <c r="G20" s="50">
         <v>13.32394366197178</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="50">
         <v>1E+30</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="71">
-        <v>0</v>
-      </c>
-      <c r="E21" s="71">
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50">
         <v>-1</v>
       </c>
-      <c r="F21" s="71">
-        <v>0</v>
-      </c>
-      <c r="G21" s="71">
+      <c r="F21" s="50">
+        <v>0</v>
+      </c>
+      <c r="G21" s="50">
         <v>13.32394366197178</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="50">
         <v>1E+30</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="48">
         <v>12</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="48">
         <v>3</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="48">
         <v>12</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="48">
         <v>12</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="48">
         <v>13.32394366197178</v>
       </c>
     </row>
@@ -5102,205 +5102,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="47" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1"/>
     <row r="6" spans="1:10" ht="15">
-      <c r="B6" s="74"/>
-      <c r="C6" s="74" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="51">
         <v>117.43661971830986</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1"/>
     <row r="11" spans="1:10" ht="15">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="F11" s="74" t="s">
+      <c r="D11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="53" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="54" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="52">
         <v>8.3098591549296028</v>
       </c>
-      <c r="F13" s="73">
-        <v>0</v>
-      </c>
-      <c r="G13" s="73">
+      <c r="F13" s="52">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52">
         <v>84.197183098591452</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="52">
         <v>8.309859154929601</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="52">
         <v>117.43661971830986</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="52">
         <v>8.169014084507026</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="52">
         <v>8.1690140845070225</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="52">
         <v>117.43661971830983</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="52">
         <v>8.1690140845070225</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="52">
         <v>117.43661971830983</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="52">
         <v>12</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="52">
         <v>12</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="52">
         <v>117.43661971830986</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="52">
         <v>12</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="52">
         <v>117.43661971830986</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="52">
         <v>13.32394366197178</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="52">
         <v>13.323943661971782</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="52">
         <v>117.43661971830986</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="52">
         <v>13.323943661971782</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="52">
         <v>117.43661971830986</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" thickBot="1">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="51">
         <v>25.323943661971782</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="51">
         <v>25.323943661971782</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="51">
         <v>117.43661971830986</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="51">
         <v>25.323943661971782</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="51">
         <v>117.43661971830986</v>
       </c>
     </row>
@@ -5313,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84:J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5329,10 +5329,10 @@
     <col min="8" max="8" width="23.75" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="25" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5352,46 +5352,46 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="G2" s="43" t="s">
+      <c r="C2" s="156"/>
+      <c r="G2" s="157" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="G3" s="44"/>
+      <c r="C3" s="135"/>
+      <c r="G3" s="158"/>
       <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="41">
         <f>2.6*$A$10+4.7*$B$10</f>
         <v>60</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="43">
         <v>60</v>
       </c>
     </row>
@@ -5399,25 +5399,25 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="135"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="41">
         <f>3.3*$A$10+4.6*$B$10</f>
         <v>65.000000000000014</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="43">
         <v>65</v>
       </c>
     </row>
@@ -5425,25 +5425,25 @@
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="135"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="41">
         <f>$E$10-3.1*$B$10</f>
         <v>0</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="43">
         <v>0</v>
       </c>
     </row>
@@ -5451,59 +5451,59 @@
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="G6" s="44"/>
+      <c r="C6" s="161"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="10" t="s">
         <v>166</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="41">
         <f>$C$10+$D$10-$E$10</f>
         <v>0</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="G7" s="45"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="44">
         <f>$C$10</f>
         <v>12</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="L7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
       <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="56">
         <f>4*$A$10+9*$B$10+2*$C$10-$D$10+0</f>
         <v>117.43661971830987</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="149" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="20">
@@ -5587,7 +5587,7 @@
       <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="150"/>
       <c r="E13" s="24" t="s">
         <v>28</v>
       </c>
@@ -5731,7 +5731,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="30">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="55" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -5869,316 +5869,316 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="56"/>
+      <c r="D22" s="152"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="46" t="s">
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="135"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="K26" s="121" t="s">
+      <c r="K26" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="L26" s="122" t="s">
+      <c r="L26" s="90" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E27" s="97"/>
-      <c r="F27" s="89" t="s">
+      <c r="E27" s="76"/>
+      <c r="F27" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="120" t="s">
+      <c r="H27" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="123" t="s">
+      <c r="K27" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="L27" s="124" t="s">
+      <c r="L27" s="143" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="71">
         <v>8.6757575757575793</v>
       </c>
-      <c r="G28" s="93">
+      <c r="G28" s="72">
         <v>10.330769230769199</v>
       </c>
-      <c r="H28" s="120"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="125"/>
+      <c r="H28" s="139"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="144"/>
     </row>
     <row r="29" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="95">
+      <c r="F29" s="74">
         <v>-1.1045943304007799</v>
       </c>
-      <c r="G29" s="96">
+      <c r="G29" s="75">
         <v>-0.570719602977666</v>
       </c>
-      <c r="H29" s="120"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="H29" s="139"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="145"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="31" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="J32" s="111" t="s">
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="82"/>
+      <c r="J32" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="113"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="118"/>
     </row>
     <row r="33" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="115"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="82"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="121"/>
     </row>
     <row r="34" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="115"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="82"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="121"/>
     </row>
     <row r="35" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C35" s="104"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="103"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="115"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="121"/>
     </row>
     <row r="36" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="118"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="124"/>
     </row>
     <row r="37" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82"/>
     </row>
     <row r="38" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
     </row>
     <row r="39" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
-      <c r="J39" s="111" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
+      <c r="J39" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="113"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="118"/>
     </row>
     <row r="40" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="115"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="121"/>
     </row>
     <row r="41" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="103"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="115"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="121"/>
     </row>
     <row r="42" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="115"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="121"/>
     </row>
     <row r="43" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="118"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="124"/>
     </row>
     <row r="44" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82"/>
     </row>
     <row r="45" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="82"/>
     </row>
     <row r="46" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82"/>
     </row>
     <row r="47" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="108"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="87"/>
     </row>
     <row r="48" spans="3:13" ht="15.75" customHeight="1"/>
-    <row r="49" spans="2:14" s="131" customFormat="1" ht="4.5" customHeight="1"/>
+    <row r="49" spans="2:14" s="91" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="50" spans="2:14" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="51" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C51" s="128" t="s">
+      <c r="C51" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="46" t="s">
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="47"/>
+      <c r="I51" s="135"/>
     </row>
     <row r="52" spans="2:14" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="53" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C53" s="140" t="s">
+      <c r="C53" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="142"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="133"/>
     </row>
     <row r="54" spans="2:14" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="94"/>
     </row>
     <row r="56" spans="2:14" ht="15.75" customHeight="1">
       <c r="B56" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="95" t="s">
         <v>124</v>
       </c>
       <c r="D56" s="16">
@@ -6205,60 +6205,60 @@
       <c r="K56" s="16">
         <v>0</v>
       </c>
-      <c r="L56" s="139" t="s">
+      <c r="L56" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="M56" s="139" t="s">
+      <c r="M56" s="99" t="s">
         <v>125</v>
       </c>
       <c r="N56" s="17"/>
     </row>
     <row r="57" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B57" s="136" t="s">
+      <c r="B57" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="136" t="s">
+      <c r="C57" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="136" t="s">
+      <c r="D57" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="136" t="s">
+      <c r="E57" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="136" t="s">
+      <c r="F57" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="G57" s="136" t="s">
+      <c r="G57" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="H57" s="136" t="s">
+      <c r="H57" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="I57" s="136" t="s">
+      <c r="I57" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="J57" s="136" t="s">
+      <c r="J57" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="K57" s="136" t="s">
+      <c r="K57" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="L57" s="136" t="s">
+      <c r="L57" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="M57" s="136" t="s">
+      <c r="M57" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="N57" s="136" t="s">
+      <c r="N57" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="132">
+      <c r="C58" s="92">
         <v>133239</v>
       </c>
       <c r="D58" s="16">
@@ -6276,19 +6276,19 @@
       <c r="H58" s="16">
         <v>0</v>
       </c>
-      <c r="I58" s="143">
+      <c r="I58" s="100">
         <v>28817</v>
       </c>
-      <c r="J58" s="143">
+      <c r="J58" s="100">
         <v>-22704</v>
       </c>
-      <c r="K58" s="144">
+      <c r="K58" s="101">
         <v>-1</v>
       </c>
-      <c r="L58" s="144">
+      <c r="L58" s="101">
         <v>1</v>
       </c>
-      <c r="M58" s="144">
+      <c r="M58" s="101">
         <v>1</v>
       </c>
       <c r="N58" s="16">
@@ -6296,10 +6296,10 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B59" s="135" t="s">
+      <c r="B59" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="132">
+      <c r="C59" s="92">
         <v>83099</v>
       </c>
       <c r="D59" s="16">
@@ -6317,19 +6317,19 @@
       <c r="H59" s="16">
         <v>0</v>
       </c>
-      <c r="I59" s="143">
+      <c r="I59" s="100">
         <v>-12958</v>
       </c>
-      <c r="J59" s="143">
+      <c r="J59" s="100">
         <v>13239</v>
       </c>
-      <c r="K59" s="144">
-        <v>0</v>
-      </c>
-      <c r="L59" s="144">
-        <v>0</v>
-      </c>
-      <c r="M59" s="144">
+      <c r="K59" s="101">
+        <v>0</v>
+      </c>
+      <c r="L59" s="101">
+        <v>0</v>
+      </c>
+      <c r="M59" s="101">
         <v>0</v>
       </c>
       <c r="N59" s="16">
@@ -6337,10 +6337,10 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B60" s="135" t="s">
+      <c r="B60" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="132">
+      <c r="C60" s="92">
         <v>253239</v>
       </c>
       <c r="D60" s="16">
@@ -6358,19 +6358,19 @@
       <c r="H60" s="16">
         <v>1</v>
       </c>
-      <c r="I60" s="143">
+      <c r="I60" s="100">
         <v>28817</v>
       </c>
-      <c r="J60" s="143">
+      <c r="J60" s="100">
         <v>-22704</v>
       </c>
-      <c r="K60" s="144">
-        <v>0</v>
-      </c>
-      <c r="L60" s="144">
+      <c r="K60" s="101">
+        <v>0</v>
+      </c>
+      <c r="L60" s="101">
         <v>1</v>
       </c>
-      <c r="M60" s="144">
+      <c r="M60" s="101">
         <v>0</v>
       </c>
       <c r="N60" s="16">
@@ -6378,7 +6378,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B61" s="135" t="s">
+      <c r="B61" s="95" t="s">
         <v>140</v>
       </c>
       <c r="C61" s="16">
@@ -6399,19 +6399,19 @@
       <c r="H61" s="16">
         <v>0</v>
       </c>
-      <c r="I61" s="144">
-        <v>0</v>
-      </c>
-      <c r="J61" s="144">
-        <v>0</v>
-      </c>
-      <c r="K61" s="144">
+      <c r="I61" s="101">
+        <v>0</v>
+      </c>
+      <c r="J61" s="101">
+        <v>0</v>
+      </c>
+      <c r="K61" s="101">
         <v>1</v>
       </c>
-      <c r="L61" s="144">
-        <v>0</v>
-      </c>
-      <c r="M61" s="144">
+      <c r="L61" s="101">
+        <v>0</v>
+      </c>
+      <c r="M61" s="101">
         <v>0</v>
       </c>
       <c r="N61" s="16">
@@ -6419,10 +6419,10 @@
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B62" s="135" t="s">
+      <c r="B62" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="132">
+      <c r="C62" s="92">
         <v>8169</v>
       </c>
       <c r="D62" s="16">
@@ -6440,19 +6440,19 @@
       <c r="H62" s="16">
         <v>0</v>
       </c>
-      <c r="I62" s="144" t="s">
+      <c r="I62" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="J62" s="144" t="s">
+      <c r="J62" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="K62" s="144">
-        <v>0</v>
-      </c>
-      <c r="L62" s="144">
-        <v>0</v>
-      </c>
-      <c r="M62" s="144">
+      <c r="K62" s="101">
+        <v>0</v>
+      </c>
+      <c r="L62" s="101">
+        <v>0</v>
+      </c>
+      <c r="M62" s="101">
         <v>0</v>
       </c>
       <c r="N62" s="16">
@@ -6460,10 +6460,10 @@
       </c>
     </row>
     <row r="63" spans="2:14" ht="38.25" customHeight="1">
-      <c r="B63" s="137" t="s">
+      <c r="B63" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="136" t="s">
+      <c r="C63" s="96" t="s">
         <v>145</v>
       </c>
       <c r="D63" s="18">
@@ -6500,7 +6500,7 @@
     </row>
     <row r="64" spans="2:14" ht="15.75" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="95" t="s">
         <v>148</v>
       </c>
       <c r="D64" s="16">
@@ -6536,160 +6536,160 @@
       <c r="N64" s="17"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="C65" s="138"/>
+      <c r="C65" s="98"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B66" s="136" t="s">
+      <c r="B66" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="136" t="s">
+      <c r="C66" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="136" t="s">
+      <c r="D66" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="136" t="s">
+      <c r="E66" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="F66" s="136" t="s">
+      <c r="F66" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="H66" s="136" t="s">
+      <c r="H66" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="K66" s="136" t="s">
+      <c r="K66" s="96" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B67" s="151">
+      <c r="B67" s="105">
         <v>28.817</v>
       </c>
-      <c r="C67" s="151">
+      <c r="C67" s="105">
         <v>-22.704000000000001</v>
       </c>
-      <c r="D67" s="150">
+      <c r="D67" s="104">
         <v>-1</v>
       </c>
-      <c r="E67" s="150">
+      <c r="E67" s="104">
         <v>1</v>
       </c>
-      <c r="F67" s="150">
+      <c r="F67" s="104">
         <v>1</v>
       </c>
-      <c r="G67" s="147" t="s">
+      <c r="G67" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="H67" s="148">
+      <c r="H67" s="102">
         <v>-1</v>
       </c>
-      <c r="I67" s="145" t="s">
+      <c r="I67" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="146"/>
+      <c r="J67" s="130"/>
       <c r="K67" s="16">
         <f>B67*$H$67+C67*$H$68+D67*$H$69+E67*$H$70+F67*$H$71</f>
         <v>-108.63300000000001</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B68" s="151">
+      <c r="B68" s="105">
         <v>-12.958</v>
       </c>
-      <c r="C68" s="151">
+      <c r="C68" s="105">
         <v>13.239000000000001</v>
       </c>
-      <c r="D68" s="150">
-        <v>0</v>
-      </c>
-      <c r="E68" s="150">
-        <v>0</v>
-      </c>
-      <c r="F68" s="150">
-        <v>0</v>
-      </c>
-      <c r="G68" s="147"/>
-      <c r="H68" s="148">
+      <c r="D68" s="104">
+        <v>0</v>
+      </c>
+      <c r="E68" s="104">
+        <v>0</v>
+      </c>
+      <c r="F68" s="104">
+        <v>0</v>
+      </c>
+      <c r="G68" s="128"/>
+      <c r="H68" s="102">
         <v>4</v>
       </c>
-      <c r="I68" s="145"/>
-      <c r="J68" s="146"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="130"/>
       <c r="K68" s="16">
-        <f t="shared" ref="K68:K71" si="0">B68*$H$67+C68*$H$68+D68*$H$69+E68*$H$70+F68*$H$71</f>
+        <f t="shared" ref="K68:K70" si="0">B68*$H$67+C68*$H$68+D68*$H$69+E68*$H$70+F68*$H$71</f>
         <v>65.914000000000001</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B69" s="151">
+      <c r="B69" s="105">
         <v>28.817</v>
       </c>
-      <c r="C69" s="151">
+      <c r="C69" s="105">
         <v>-22.704000000000001</v>
       </c>
-      <c r="D69" s="150">
-        <v>0</v>
-      </c>
-      <c r="E69" s="150">
+      <c r="D69" s="104">
+        <v>0</v>
+      </c>
+      <c r="E69" s="104">
         <v>1</v>
       </c>
-      <c r="F69" s="150">
-        <v>0</v>
-      </c>
-      <c r="G69" s="147"/>
-      <c r="H69" s="148">
-        <v>0</v>
-      </c>
-      <c r="I69" s="145"/>
-      <c r="J69" s="146"/>
+      <c r="F69" s="104">
+        <v>0</v>
+      </c>
+      <c r="G69" s="128"/>
+      <c r="H69" s="102">
+        <v>0</v>
+      </c>
+      <c r="I69" s="129"/>
+      <c r="J69" s="130"/>
       <c r="K69" s="16">
         <f t="shared" si="0"/>
         <v>-117.63300000000001</v>
       </c>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B70" s="150">
-        <v>0</v>
-      </c>
-      <c r="C70" s="150">
-        <v>0</v>
-      </c>
-      <c r="D70" s="150">
+      <c r="B70" s="104">
+        <v>0</v>
+      </c>
+      <c r="C70" s="104">
+        <v>0</v>
+      </c>
+      <c r="D70" s="104">
         <v>1</v>
       </c>
-      <c r="E70" s="150">
-        <v>0</v>
-      </c>
-      <c r="F70" s="150">
-        <v>0</v>
-      </c>
-      <c r="G70" s="147"/>
-      <c r="H70" s="148">
+      <c r="E70" s="104">
+        <v>0</v>
+      </c>
+      <c r="F70" s="104">
+        <v>0</v>
+      </c>
+      <c r="G70" s="128"/>
+      <c r="H70" s="102">
         <v>2</v>
       </c>
-      <c r="I70" s="145"/>
-      <c r="J70" s="146"/>
+      <c r="I70" s="129"/>
+      <c r="J70" s="130"/>
       <c r="K70" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B71" s="149">
+      <c r="B71" s="103">
         <v>0.92959999999999998</v>
       </c>
-      <c r="C71" s="149">
+      <c r="C71" s="103">
         <v>-0.73240000000000005</v>
       </c>
-      <c r="D71" s="150">
-        <v>0</v>
-      </c>
-      <c r="E71" s="150">
-        <v>0</v>
-      </c>
-      <c r="F71" s="150">
-        <v>0</v>
-      </c>
-      <c r="H71" s="148">
+      <c r="D71" s="104">
+        <v>0</v>
+      </c>
+      <c r="E71" s="104">
+        <v>0</v>
+      </c>
+      <c r="F71" s="104">
+        <v>0</v>
+      </c>
+      <c r="H71" s="102">
         <v>9</v>
       </c>
       <c r="K71" s="16">
@@ -6699,319 +6699,319 @@
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C73" s="128" t="s">
+      <c r="C73" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="129"/>
-      <c r="E73" s="129"/>
-      <c r="F73" s="129"/>
-      <c r="G73" s="130"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="127"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="75" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B75" s="136" t="s">
+      <c r="B75" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="136" t="s">
+      <c r="C75" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="136" t="s">
+      <c r="D75" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="136" t="s">
+      <c r="E75" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="F75" s="136" t="s">
+      <c r="F75" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="H75" s="136" t="s">
+      <c r="H75" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="K75" s="152" t="s">
+      <c r="K75" s="106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="18" customHeight="1">
-      <c r="B76" s="151">
+      <c r="B76" s="105">
         <v>28.817</v>
       </c>
-      <c r="C76" s="151">
+      <c r="C76" s="105">
         <v>-22.704000000000001</v>
       </c>
-      <c r="D76" s="150">
+      <c r="D76" s="104">
         <v>-1</v>
       </c>
-      <c r="E76" s="150">
+      <c r="E76" s="104">
         <v>1</v>
       </c>
-      <c r="F76" s="150">
+      <c r="F76" s="104">
         <v>1</v>
       </c>
-      <c r="G76" s="147" t="s">
+      <c r="G76" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="H76" s="148">
+      <c r="H76" s="102">
         <v>-1</v>
       </c>
-      <c r="I76" s="145" t="s">
+      <c r="I76" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="J76" s="146"/>
-      <c r="K76" s="153" t="s">
+      <c r="J76" s="130"/>
+      <c r="K76" s="107" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B77" s="151">
+      <c r="B77" s="105">
         <v>-12.958</v>
       </c>
-      <c r="C77" s="151">
+      <c r="C77" s="105">
         <v>13.239000000000001</v>
       </c>
-      <c r="D77" s="150">
-        <v>0</v>
-      </c>
-      <c r="E77" s="150">
-        <v>0</v>
-      </c>
-      <c r="F77" s="150">
-        <v>0</v>
-      </c>
-      <c r="G77" s="147"/>
-      <c r="H77" s="148">
+      <c r="D77" s="104">
+        <v>0</v>
+      </c>
+      <c r="E77" s="104">
+        <v>0</v>
+      </c>
+      <c r="F77" s="104">
+        <v>0</v>
+      </c>
+      <c r="G77" s="128"/>
+      <c r="H77" s="102">
         <v>4</v>
       </c>
-      <c r="I77" s="145"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="154">
+      <c r="I77" s="129"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="108">
         <f>B77*$H$67+C77*$H$68+D77*$H$69+E77*$H$70+F77*$H$71</f>
         <v>65.914000000000001</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B78" s="151">
+      <c r="B78" s="105">
         <v>28.817</v>
       </c>
-      <c r="C78" s="151">
+      <c r="C78" s="105">
         <v>-22.704000000000001</v>
       </c>
-      <c r="D78" s="150">
-        <v>0</v>
-      </c>
-      <c r="E78" s="150">
+      <c r="D78" s="104">
+        <v>0</v>
+      </c>
+      <c r="E78" s="104">
         <v>1</v>
       </c>
-      <c r="F78" s="150">
-        <v>0</v>
-      </c>
-      <c r="G78" s="147"/>
-      <c r="H78" s="148">
-        <v>0</v>
-      </c>
-      <c r="I78" s="145"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="161" t="s">
+      <c r="F78" s="104">
+        <v>0</v>
+      </c>
+      <c r="G78" s="128"/>
+      <c r="H78" s="102">
+        <v>0</v>
+      </c>
+      <c r="I78" s="129"/>
+      <c r="J78" s="130"/>
+      <c r="K78" s="111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B79" s="150">
-        <v>0</v>
-      </c>
-      <c r="C79" s="150">
-        <v>0</v>
-      </c>
-      <c r="D79" s="150">
+      <c r="B79" s="104">
+        <v>0</v>
+      </c>
+      <c r="C79" s="104">
+        <v>0</v>
+      </c>
+      <c r="D79" s="104">
         <v>1</v>
       </c>
-      <c r="E79" s="150">
-        <v>0</v>
-      </c>
-      <c r="F79" s="150">
-        <v>0</v>
-      </c>
-      <c r="G79" s="147"/>
-      <c r="H79" s="150" t="s">
+      <c r="E79" s="104">
+        <v>0</v>
+      </c>
+      <c r="F79" s="104">
+        <v>0</v>
+      </c>
+      <c r="G79" s="128"/>
+      <c r="H79" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="I79" s="145"/>
-      <c r="J79" s="146"/>
-      <c r="K79" s="154">
-        <f t="shared" ref="K77:K80" si="1">B79*$H$67+C79*$H$68+D79*$H$69+E79*$H$70+F79*$H$71</f>
+      <c r="I79" s="129"/>
+      <c r="J79" s="130"/>
+      <c r="K79" s="108">
+        <f t="shared" ref="K79" si="1">B79*$H$67+C79*$H$68+D79*$H$69+E79*$H$70+F79*$H$71</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B80" s="149">
+      <c r="B80" s="103">
         <v>0.92959999999999998</v>
       </c>
-      <c r="C80" s="149">
+      <c r="C80" s="103">
         <v>-0.73240000000000005</v>
       </c>
-      <c r="D80" s="150">
-        <v>0</v>
-      </c>
-      <c r="E80" s="150">
-        <v>0</v>
-      </c>
-      <c r="F80" s="150">
-        <v>0</v>
-      </c>
-      <c r="H80" s="160">
+      <c r="D80" s="104">
+        <v>0</v>
+      </c>
+      <c r="E80" s="104">
+        <v>0</v>
+      </c>
+      <c r="F80" s="104">
+        <v>0</v>
+      </c>
+      <c r="H80" s="110">
         <v>9</v>
       </c>
-      <c r="K80" s="155">
+      <c r="K80" s="109">
         <f>B80*$H$67+C80*$H$68+D80*$H$69+E80*$H$70+F80*$H$71</f>
         <v>-3.8592000000000004</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="82" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C82" s="128" t="s">
+      <c r="C82" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="130"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="127"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="84" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B84" s="156" t="s">
+      <c r="B84" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="157"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="99"/>
-      <c r="I84" s="99"/>
-      <c r="J84" s="100"/>
+      <c r="C84" s="113"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="79"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B85" s="156" t="s">
+      <c r="B85" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="157"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="102"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="102"/>
-      <c r="I85" s="102"/>
-      <c r="J85" s="103"/>
+      <c r="C85" s="113"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="82"/>
     </row>
     <row r="86" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B86" s="156" t="s">
+      <c r="B86" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="157"/>
-      <c r="E86" s="101"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="102"/>
-      <c r="I86" s="102"/>
-      <c r="J86" s="103"/>
+      <c r="C86" s="113"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="82"/>
     </row>
     <row r="87" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B87" s="158" t="s">
+      <c r="B87" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="159"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="102"/>
-      <c r="J87" s="103"/>
+      <c r="C87" s="115"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="82"/>
     </row>
     <row r="88" spans="2:10" ht="15.75" customHeight="1">
-      <c r="E88" s="104"/>
-      <c r="F88" s="102"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="102"/>
-      <c r="I88" s="102"/>
-      <c r="J88" s="103"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="82"/>
     </row>
     <row r="89" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B89" s="156" t="s">
+      <c r="B89" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="157"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="102"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="102"/>
-      <c r="J89" s="103"/>
+      <c r="C89" s="113"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="82"/>
     </row>
     <row r="90" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B90" s="156" t="s">
+      <c r="B90" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="157"/>
-      <c r="E90" s="101"/>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="102"/>
-      <c r="I90" s="102"/>
-      <c r="J90" s="103"/>
+      <c r="C90" s="113"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="82"/>
     </row>
     <row r="91" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B91" s="156" t="s">
+      <c r="B91" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="157"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="102"/>
-      <c r="I91" s="102"/>
-      <c r="J91" s="103"/>
+      <c r="C91" s="113"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="81"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="82"/>
     </row>
     <row r="92" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B92" s="158" t="s">
+      <c r="B92" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="159"/>
-      <c r="E92" s="106"/>
-      <c r="F92" s="107"/>
-      <c r="G92" s="107"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="107"/>
-      <c r="J92" s="108"/>
+      <c r="C92" s="115"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="87"/>
     </row>
     <row r="93" spans="2:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="94" spans="2:10" ht="15.75" customHeight="1">
-      <c r="E94" s="111" t="s">
+      <c r="E94" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112"/>
-      <c r="H94" s="113"/>
+      <c r="F94" s="117"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="118"/>
     </row>
     <row r="95" spans="2:10" ht="15.75" customHeight="1">
-      <c r="E95" s="114"/>
-      <c r="F95" s="110"/>
-      <c r="G95" s="110"/>
-      <c r="H95" s="115"/>
+      <c r="E95" s="119"/>
+      <c r="F95" s="120"/>
+      <c r="G95" s="120"/>
+      <c r="H95" s="121"/>
     </row>
     <row r="96" spans="2:10" ht="15.75" customHeight="1">
-      <c r="E96" s="114"/>
-      <c r="F96" s="110"/>
-      <c r="G96" s="110"/>
-      <c r="H96" s="115"/>
+      <c r="E96" s="119"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="120"/>
+      <c r="H96" s="121"/>
     </row>
     <row r="97" spans="5:8" ht="15.75" customHeight="1">
-      <c r="E97" s="114"/>
-      <c r="F97" s="110"/>
-      <c r="G97" s="110"/>
-      <c r="H97" s="115"/>
+      <c r="E97" s="119"/>
+      <c r="F97" s="120"/>
+      <c r="G97" s="120"/>
+      <c r="H97" s="121"/>
     </row>
     <row r="98" spans="5:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E98" s="116"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="117"/>
-      <c r="H98" s="118"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="124"/>
     </row>
     <row r="99" spans="5:8" ht="15.75" customHeight="1"/>
     <row r="100" spans="5:8" ht="15.75" customHeight="1"/>
@@ -7919,32 +7919,6 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="E94:H98"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="I76:J79"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="I67:J70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="J39:M43"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="J32:M36"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C22:D23"/>
@@ -7954,6 +7928,32 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="J32:M36"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="J39:M43"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="I76:J79"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="I67:J70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="E94:H98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Taller 2 Ej 2.xlsx
+++ b/Taller 2 Ej 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Investigacion de operaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D35625B-9DEE-4E48-A250-021944393C11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1329DEEB-5D8F-4E78-8F1E-3EA2BFE6098E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2147,106 +2147,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2279,10 +2179,110 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3934,83 +3934,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>865271</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>157413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="CuadroTexto 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F74B1FF-4099-4F1E-9858-7784D194EA0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6627896" y="8234613"/>
-          <a:ext cx="534904" cy="395037"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>X4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>83</xdr:row>
@@ -5313,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84:J92"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5352,32 +5275,32 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="G2" s="157" t="s">
+      <c r="C2" s="122"/>
+      <c r="G2" s="123" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="G3" s="158"/>
+      <c r="C3" s="127"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
@@ -5399,11 +5322,11 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="G4" s="158"/>
+      <c r="C4" s="127"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
@@ -5425,11 +5348,11 @@
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="G5" s="158"/>
+      <c r="C5" s="127"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
@@ -5451,11 +5374,11 @@
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="G6" s="158"/>
+      <c r="C6" s="129"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="10" t="s">
         <v>166</v>
       </c>
@@ -5474,7 +5397,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="G7" s="159"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5493,13 +5416,13 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
       <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
@@ -5550,7 +5473,7 @@
       <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="115" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="20">
@@ -5587,7 +5510,7 @@
       <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="150"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="24" t="s">
         <v>28</v>
       </c>
@@ -5869,28 +5792,28 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="152"/>
+      <c r="D22" s="118"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="134" t="s">
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="135"/>
+      <c r="I25" s="127"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="K26" s="89" t="s">
@@ -5908,13 +5831,13 @@
       <c r="G27" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="139" t="s">
+      <c r="H27" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="140" t="s">
+      <c r="K27" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="L27" s="143" t="s">
+      <c r="L27" s="146" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5931,9 +5854,9 @@
       <c r="G28" s="72">
         <v>10.330769230769199</v>
       </c>
-      <c r="H28" s="139"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="144"/>
+      <c r="H28" s="142"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="D29" s="88" t="s">
@@ -5948,9 +5871,9 @@
       <c r="G29" s="75">
         <v>-0.570719602977666</v>
       </c>
-      <c r="H29" s="139"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="145"/>
+      <c r="H29" s="142"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="148"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="31" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
@@ -5968,12 +5891,12 @@
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
       <c r="H32" s="82"/>
-      <c r="J32" s="116" t="s">
+      <c r="J32" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="118"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="135"/>
     </row>
     <row r="33" spans="3:13" ht="15.75" customHeight="1">
       <c r="C33" s="80"/>
@@ -5982,10 +5905,10 @@
       <c r="F33" s="81"/>
       <c r="G33" s="81"/>
       <c r="H33" s="82"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="121"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="138"/>
     </row>
     <row r="34" spans="3:13" ht="15.75" customHeight="1">
       <c r="C34" s="80"/>
@@ -5994,10 +5917,10 @@
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
       <c r="H34" s="82"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="121"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="138"/>
     </row>
     <row r="35" spans="3:13" ht="15.75" customHeight="1">
       <c r="C35" s="83"/>
@@ -6006,10 +5929,10 @@
       <c r="F35" s="81"/>
       <c r="G35" s="81"/>
       <c r="H35" s="82"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="121"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="138"/>
     </row>
     <row r="36" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C36" s="80"/>
@@ -6018,10 +5941,10 @@
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
       <c r="H36" s="82"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="124"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="141"/>
     </row>
     <row r="37" spans="3:13" ht="15.75" customHeight="1">
       <c r="C37" s="80"/>
@@ -6046,12 +5969,12 @@
       <c r="F39" s="81"/>
       <c r="G39" s="81"/>
       <c r="H39" s="82"/>
-      <c r="J39" s="116" t="s">
+      <c r="J39" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="118"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="135"/>
     </row>
     <row r="40" spans="3:13" ht="15.75" customHeight="1">
       <c r="C40" s="80"/>
@@ -6060,10 +5983,10 @@
       <c r="F40" s="81"/>
       <c r="G40" s="81"/>
       <c r="H40" s="82"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="121"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="138"/>
     </row>
     <row r="41" spans="3:13" ht="15.75" customHeight="1">
       <c r="C41" s="80"/>
@@ -6072,10 +5995,10 @@
       <c r="F41" s="81"/>
       <c r="G41" s="81"/>
       <c r="H41" s="82"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="121"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="138"/>
     </row>
     <row r="42" spans="3:13" ht="15.75" customHeight="1">
       <c r="C42" s="80"/>
@@ -6084,10 +6007,10 @@
       <c r="F42" s="81"/>
       <c r="G42" s="81"/>
       <c r="H42" s="82"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="121"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="138"/>
     </row>
     <row r="43" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C43" s="80"/>
@@ -6096,10 +6019,10 @@
       <c r="F43" s="81"/>
       <c r="G43" s="81"/>
       <c r="H43" s="82"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="124"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="141"/>
     </row>
     <row r="44" spans="3:13" ht="15.75" customHeight="1">
       <c r="C44" s="80"/>
@@ -6137,26 +6060,26 @@
     <row r="49" spans="2:14" s="91" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="50" spans="2:14" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="51" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C51" s="125" t="s">
+      <c r="C51" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="134" t="s">
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="135"/>
+      <c r="I51" s="127"/>
     </row>
     <row r="52" spans="2:14" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="53" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C53" s="131" t="s">
+      <c r="C53" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="132"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="133"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="158"/>
     </row>
     <row r="54" spans="2:14" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:14" ht="15.75" customHeight="1">
@@ -6577,16 +6500,16 @@
       <c r="F67" s="104">
         <v>1</v>
       </c>
-      <c r="G67" s="128" t="s">
+      <c r="G67" s="159" t="s">
         <v>152</v>
       </c>
       <c r="H67" s="102">
         <v>-1</v>
       </c>
-      <c r="I67" s="129" t="s">
+      <c r="I67" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="130"/>
+      <c r="J67" s="153"/>
       <c r="K67" s="16">
         <f>B67*$H$67+C67*$H$68+D67*$H$69+E67*$H$70+F67*$H$71</f>
         <v>-108.63300000000001</v>
@@ -6608,12 +6531,12 @@
       <c r="F68" s="104">
         <v>0</v>
       </c>
-      <c r="G68" s="128"/>
+      <c r="G68" s="159"/>
       <c r="H68" s="102">
         <v>4</v>
       </c>
-      <c r="I68" s="129"/>
-      <c r="J68" s="130"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="153"/>
       <c r="K68" s="16">
         <f t="shared" ref="K68:K70" si="0">B68*$H$67+C68*$H$68+D68*$H$69+E68*$H$70+F68*$H$71</f>
         <v>65.914000000000001</v>
@@ -6635,12 +6558,12 @@
       <c r="F69" s="104">
         <v>0</v>
       </c>
-      <c r="G69" s="128"/>
+      <c r="G69" s="159"/>
       <c r="H69" s="102">
         <v>0</v>
       </c>
-      <c r="I69" s="129"/>
-      <c r="J69" s="130"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="153"/>
       <c r="K69" s="16">
         <f t="shared" si="0"/>
         <v>-117.63300000000001</v>
@@ -6662,12 +6585,12 @@
       <c r="F70" s="104">
         <v>0</v>
       </c>
-      <c r="G70" s="128"/>
+      <c r="G70" s="159"/>
       <c r="H70" s="102">
         <v>2</v>
       </c>
-      <c r="I70" s="129"/>
-      <c r="J70" s="130"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="153"/>
       <c r="K70" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6699,13 +6622,13 @@
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C73" s="125" t="s">
+      <c r="C73" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="127"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="150"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="151"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="75" spans="2:11" ht="15.75" customHeight="1">
@@ -6747,16 +6670,16 @@
       <c r="F76" s="104">
         <v>1</v>
       </c>
-      <c r="G76" s="128" t="s">
+      <c r="G76" s="159" t="s">
         <v>152</v>
       </c>
       <c r="H76" s="102">
         <v>-1</v>
       </c>
-      <c r="I76" s="129" t="s">
+      <c r="I76" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="J76" s="130"/>
+      <c r="J76" s="153"/>
       <c r="K76" s="107" t="s">
         <v>156</v>
       </c>
@@ -6777,12 +6700,12 @@
       <c r="F77" s="104">
         <v>0</v>
       </c>
-      <c r="G77" s="128"/>
+      <c r="G77" s="159"/>
       <c r="H77" s="102">
         <v>4</v>
       </c>
-      <c r="I77" s="129"/>
-      <c r="J77" s="130"/>
+      <c r="I77" s="152"/>
+      <c r="J77" s="153"/>
       <c r="K77" s="108">
         <f>B77*$H$67+C77*$H$68+D77*$H$69+E77*$H$70+F77*$H$71</f>
         <v>65.914000000000001</v>
@@ -6804,12 +6727,12 @@
       <c r="F78" s="104">
         <v>0</v>
       </c>
-      <c r="G78" s="128"/>
+      <c r="G78" s="159"/>
       <c r="H78" s="102">
         <v>0</v>
       </c>
-      <c r="I78" s="129"/>
-      <c r="J78" s="130"/>
+      <c r="I78" s="152"/>
+      <c r="J78" s="153"/>
       <c r="K78" s="111" t="s">
         <v>157</v>
       </c>
@@ -6830,12 +6753,12 @@
       <c r="F79" s="104">
         <v>0</v>
       </c>
-      <c r="G79" s="128"/>
+      <c r="G79" s="159"/>
       <c r="H79" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="I79" s="129"/>
-      <c r="J79" s="130"/>
+      <c r="I79" s="152"/>
+      <c r="J79" s="153"/>
       <c r="K79" s="108">
         <f t="shared" ref="K79" si="1">B79*$H$67+C79*$H$68+D79*$H$69+E79*$H$70+F79*$H$71</f>
         <v>0</v>
@@ -6867,20 +6790,20 @@
     </row>
     <row r="81" spans="2:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="82" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C82" s="125" t="s">
+      <c r="C82" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="126"/>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="127"/>
+      <c r="D82" s="150"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="150"/>
+      <c r="G82" s="151"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="84" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B84" s="112" t="s">
+      <c r="B84" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="113"/>
+      <c r="C84" s="155"/>
       <c r="E84" s="77"/>
       <c r="F84" s="78"/>
       <c r="G84" s="78"/>
@@ -6889,10 +6812,10 @@
       <c r="J84" s="79"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B85" s="112" t="s">
+      <c r="B85" s="154" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="113"/>
+      <c r="C85" s="155"/>
       <c r="E85" s="80"/>
       <c r="F85" s="81"/>
       <c r="G85" s="81"/>
@@ -6901,10 +6824,10 @@
       <c r="J85" s="82"/>
     </row>
     <row r="86" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B86" s="112" t="s">
+      <c r="B86" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="113"/>
+      <c r="C86" s="155"/>
       <c r="E86" s="80"/>
       <c r="F86" s="81"/>
       <c r="G86" s="81"/>
@@ -6913,10 +6836,10 @@
       <c r="J86" s="82"/>
     </row>
     <row r="87" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B87" s="114" t="s">
+      <c r="B87" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="115"/>
+      <c r="C87" s="161"/>
       <c r="E87" s="80"/>
       <c r="F87" s="81"/>
       <c r="G87" s="81"/>
@@ -6933,10 +6856,10 @@
       <c r="J88" s="82"/>
     </row>
     <row r="89" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B89" s="112" t="s">
+      <c r="B89" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="113"/>
+      <c r="C89" s="155"/>
       <c r="E89" s="80"/>
       <c r="F89" s="81"/>
       <c r="G89" s="81"/>
@@ -6945,10 +6868,10 @@
       <c r="J89" s="82"/>
     </row>
     <row r="90" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B90" s="112" t="s">
+      <c r="B90" s="154" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="113"/>
+      <c r="C90" s="155"/>
       <c r="E90" s="80"/>
       <c r="F90" s="81"/>
       <c r="G90" s="81"/>
@@ -6957,10 +6880,10 @@
       <c r="J90" s="82"/>
     </row>
     <row r="91" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B91" s="112" t="s">
+      <c r="B91" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="113"/>
+      <c r="C91" s="155"/>
       <c r="E91" s="80"/>
       <c r="F91" s="81"/>
       <c r="G91" s="81"/>
@@ -6969,10 +6892,10 @@
       <c r="J91" s="82"/>
     </row>
     <row r="92" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="115"/>
+      <c r="C92" s="161"/>
       <c r="E92" s="85"/>
       <c r="F92" s="86"/>
       <c r="G92" s="86"/>
@@ -6982,36 +6905,36 @@
     </row>
     <row r="93" spans="2:10" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="94" spans="2:10" ht="15.75" customHeight="1">
-      <c r="E94" s="116" t="s">
+      <c r="E94" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="F94" s="117"/>
-      <c r="G94" s="117"/>
-      <c r="H94" s="118"/>
+      <c r="F94" s="134"/>
+      <c r="G94" s="134"/>
+      <c r="H94" s="135"/>
     </row>
     <row r="95" spans="2:10" ht="15.75" customHeight="1">
-      <c r="E95" s="119"/>
-      <c r="F95" s="120"/>
-      <c r="G95" s="120"/>
-      <c r="H95" s="121"/>
+      <c r="E95" s="136"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="138"/>
     </row>
     <row r="96" spans="2:10" ht="15.75" customHeight="1">
-      <c r="E96" s="119"/>
-      <c r="F96" s="120"/>
-      <c r="G96" s="120"/>
-      <c r="H96" s="121"/>
+      <c r="E96" s="136"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="138"/>
     </row>
     <row r="97" spans="5:8" ht="15.75" customHeight="1">
-      <c r="E97" s="119"/>
-      <c r="F97" s="120"/>
-      <c r="G97" s="120"/>
-      <c r="H97" s="121"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="137"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="138"/>
     </row>
     <row r="98" spans="5:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E98" s="122"/>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="124"/>
+      <c r="E98" s="139"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+      <c r="H98" s="141"/>
     </row>
     <row r="99" spans="5:8" ht="15.75" customHeight="1"/>
     <row r="100" spans="5:8" ht="15.75" customHeight="1"/>
@@ -7919,6 +7842,32 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="E94:H98"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="I76:J79"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="I67:J70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="J39:M43"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="J32:M36"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C22:D23"/>
@@ -7928,35 +7877,9 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="J32:M36"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="J39:M43"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="I76:J79"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="I67:J70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="E94:H98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>